--- a/Sprint 1 project.xlsx
+++ b/Sprint 1 project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egle\Egle asm\Turing College\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egle\Egle asm\Turing College\git\sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F2689F-211E-468D-B134-BA1BEFEECED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371E4F2-783B-42FB-8AC0-68AA4E650014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD3F1D6F-C976-4117-AC35-2286AFB7F976}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,9 @@
   <si>
     <t>On days when I work from office, leave car in some near parking place and walk to workplace.</t>
   </si>
+  <si>
+    <t>WALKING HABITS RESARCH</t>
+  </si>
 </sst>
 </file>
 
@@ -411,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,29 +442,34 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E7A8C-DB78-4372-94EB-0200FEE835E6}">
-  <dimension ref="A2:U176"/>
+  <dimension ref="A1:U176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1868,36 @@
     <col min="21" max="21" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="33"/>
+    </row>
+    <row r="2" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="25"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="23"/>
+    </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -1884,18 +1921,18 @@
         <v>15</v>
       </c>
       <c r="I3" s="19"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1914,26 +1951,26 @@
         <v>3</v>
       </c>
       <c r="G4" s="7">
-        <f>SUMIF($D$4:$D$93,F4,$C$4:$C$93)</f>
+        <f t="shared" ref="G4:G10" si="0">SUMIF($D$4:$D$93,F4,$C$4:$C$93)</f>
         <v>13960</v>
       </c>
       <c r="H4" s="8">
-        <f>ROUND(G4/COUNTIF($D$4:$D$93,F4),0)</f>
+        <f t="shared" ref="H4:H10" si="1">ROUND(G4/COUNTIF($D$4:$D$93,F4),0)</f>
         <v>1074</v>
       </c>
       <c r="I4" s="20"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="23"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1952,26 +1989,26 @@
         <v>4</v>
       </c>
       <c r="G5" s="3">
-        <f>SUMIF($D$4:$D$93,F5,$C$4:$C$93)</f>
+        <f t="shared" si="0"/>
         <v>58505</v>
       </c>
       <c r="H5" s="5">
-        <f>ROUND(G5/COUNTIF($D$4:$D$93,F5),0)</f>
+        <f t="shared" si="1"/>
         <v>4500</v>
       </c>
       <c r="I5" s="20"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="27"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1990,26 +2027,26 @@
         <v>5</v>
       </c>
       <c r="G6" s="3">
-        <f>SUMIF($D$4:$D$93,F6,$C$4:$C$93)</f>
+        <f t="shared" si="0"/>
         <v>43850</v>
       </c>
       <c r="H6" s="5">
-        <f>ROUND(G6/COUNTIF($D$4:$D$93,F6),0)</f>
+        <f t="shared" si="1"/>
         <v>3373</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="27"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2028,26 +2065,26 @@
         <v>6</v>
       </c>
       <c r="G7" s="3">
-        <f>SUMIF($D$4:$D$93,F7,$C$4:$C$93)</f>
+        <f t="shared" si="0"/>
         <v>40567</v>
       </c>
       <c r="H7" s="5">
-        <f>ROUND(G7/COUNTIF($D$4:$D$93,F7),0)</f>
+        <f t="shared" si="1"/>
         <v>3121</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="27"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2066,26 +2103,26 @@
         <v>7</v>
       </c>
       <c r="G8" s="3">
-        <f>SUMIF($D$4:$D$93,F8,$C$4:$C$93)</f>
+        <f t="shared" si="0"/>
         <v>53643</v>
       </c>
       <c r="H8" s="5">
-        <f>ROUND(G8/COUNTIF($D$4:$D$93,F8),0)</f>
+        <f t="shared" si="1"/>
         <v>4470</v>
       </c>
       <c r="I8" s="20"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="23"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2104,26 +2141,26 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f>SUMIF($D$4:$D$93,F9,$C$4:$C$93)</f>
+        <f t="shared" si="0"/>
         <v>100958</v>
       </c>
       <c r="H9" s="5">
-        <f>ROUND(G9/COUNTIF($D$4:$D$93,F9),0)</f>
+        <f t="shared" si="1"/>
         <v>7766</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="23"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -2142,26 +2179,26 @@
         <v>2</v>
       </c>
       <c r="G10" s="10">
-        <f>SUMIF($D$4:$D$93,F10,$C$4:$C$93)</f>
+        <f t="shared" si="0"/>
         <v>94727</v>
       </c>
       <c r="H10" s="11">
-        <f>ROUND(G10/COUNTIF($D$4:$D$93,F10),0)</f>
+        <f t="shared" si="1"/>
         <v>7287</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="27"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="23"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -2188,18 +2225,18 @@
         <v>31591</v>
       </c>
       <c r="I11" s="21"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="27"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="23"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2214,18 +2251,18 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="27"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="23"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2240,18 +2277,18 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="27"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="23"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2266,18 +2303,18 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="27"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="23"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2292,18 +2329,18 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="27"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="23"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2318,18 +2355,18 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="27"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="23"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2344,18 +2381,18 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="23"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2370,18 +2407,18 @@
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="27"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2396,18 +2433,18 @@
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="27"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2422,18 +2459,18 @@
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="23"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2448,18 +2485,18 @@
       <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="27"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2474,18 +2511,18 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="27"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="23"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2500,18 +2537,18 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2526,20 +2563,20 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30" t="s">
+      <c r="J24" s="25"/>
+      <c r="K24" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="27"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="23"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2554,20 +2591,20 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="26" t="s">
+      <c r="J25" s="25"/>
+      <c r="K25" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="27"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="23"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2582,20 +2619,20 @@
       <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="26" t="s">
+      <c r="J26" s="25"/>
+      <c r="K26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="27"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="23"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2610,20 +2647,20 @@
       <c r="D27" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30" t="s">
+      <c r="J27" s="25"/>
+      <c r="K27" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="27"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="23"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2638,20 +2675,20 @@
       <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="26" t="s">
+      <c r="J28" s="25"/>
+      <c r="K28" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="27"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="23"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2666,20 +2703,20 @@
       <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="26" t="s">
+      <c r="J29" s="25"/>
+      <c r="K29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="27"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="23"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2694,20 +2731,20 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="26" t="s">
+      <c r="J30" s="25"/>
+      <c r="K30" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="27"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="23"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -2722,18 +2759,18 @@
       <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="33"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="28"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -3936,7 +3973,11 @@
       <c r="B176" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sprint 1 project.xlsx
+++ b/Sprint 1 project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egle\Egle asm\Turing College\git\sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371E4F2-783B-42FB-8AC0-68AA4E650014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920AF2BC-D030-462D-B0E4-2ED7CDDAAD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD3F1D6F-C976-4117-AC35-2286AFB7F976}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <t>On days when I work from office, leave car in some near parking place and walk to workplace.</t>
   </si>
   <si>
-    <t>WALKING HABITS RESARCH</t>
+    <t>INVESTIGATION OF WALKING HABITS</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -454,11 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1850,7 +1846,7 @@
   <dimension ref="A1:U176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1869,33 +1865,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" s="25"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
       <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1921,18 +1907,8 @@
         <v>15</v>
       </c>
       <c r="I3" s="19"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="35"/>
+      <c r="J3" s="32"/>
+      <c r="U3" s="33"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1960,16 +1936,6 @@
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="22"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1998,16 +1964,6 @@
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="22"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
       <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2036,16 +1992,6 @@
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
       <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2074,16 +2020,6 @@
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
       <c r="U7" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -2112,16 +2048,6 @@
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
       <c r="U8" s="23"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2150,16 +2076,6 @@
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
       <c r="U9" s="23"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2188,16 +2104,6 @@
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
       <c r="U10" s="23"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2226,16 +2132,6 @@
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
       <c r="U11" s="23"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2252,16 +2148,6 @@
         <v>2</v>
       </c>
       <c r="J12" s="25"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
       <c r="U12" s="23"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2278,16 +2164,6 @@
         <v>3</v>
       </c>
       <c r="J13" s="25"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
       <c r="U13" s="23"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2304,16 +2180,6 @@
         <v>4</v>
       </c>
       <c r="J14" s="25"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
       <c r="U14" s="23"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2330,16 +2196,6 @@
         <v>5</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
       <c r="U15" s="23"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2356,16 +2212,6 @@
         <v>6</v>
       </c>
       <c r="J16" s="25"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
       <c r="U16" s="23"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2382,16 +2228,6 @@
         <v>7</v>
       </c>
       <c r="J17" s="25"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
       <c r="U17" s="23"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2408,16 +2244,6 @@
         <v>3</v>
       </c>
       <c r="J18" s="25"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
       <c r="U18" s="23"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2434,16 +2260,6 @@
         <v>1</v>
       </c>
       <c r="J19" s="25"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
       <c r="U19" s="23"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2460,16 +2276,6 @@
         <v>2</v>
       </c>
       <c r="J20" s="25"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
       <c r="U20" s="23"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2486,16 +2292,6 @@
         <v>3</v>
       </c>
       <c r="J21" s="25"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
       <c r="U21" s="23"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2512,16 +2308,6 @@
         <v>4</v>
       </c>
       <c r="J22" s="25"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
       <c r="U22" s="23"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2538,16 +2324,6 @@
         <v>5</v>
       </c>
       <c r="J23" s="25"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
       <c r="U23" s="23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2564,18 +2340,9 @@
         <v>6</v>
       </c>
       <c r="J24" s="25"/>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
       <c r="U24" s="23"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2592,18 +2359,9 @@
         <v>7</v>
       </c>
       <c r="J25" s="25"/>
-      <c r="K25" s="29" t="s">
+      <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
       <c r="U25" s="23"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2620,18 +2378,9 @@
         <v>1</v>
       </c>
       <c r="J26" s="25"/>
-      <c r="K26" s="29" t="s">
+      <c r="K26" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
       <c r="U26" s="23"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2648,18 +2397,9 @@
         <v>2</v>
       </c>
       <c r="J27" s="25"/>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
       <c r="U27" s="23"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2676,18 +2416,9 @@
         <v>4</v>
       </c>
       <c r="J28" s="25"/>
-      <c r="K28" s="29" t="s">
+      <c r="K28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
       <c r="U28" s="23"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -2704,18 +2435,9 @@
         <v>5</v>
       </c>
       <c r="J29" s="25"/>
-      <c r="K29" s="29" t="s">
+      <c r="K29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
       <c r="U29" s="23"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -2732,18 +2454,9 @@
         <v>6</v>
       </c>
       <c r="J30" s="25"/>
-      <c r="K30" s="29" t="s">
+      <c r="K30" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
       <c r="U30" s="23"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
